--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/seg_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/seg_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,199 +394,199 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>130</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -618,9 +618,17 @@
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -631,7 +639,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -651,7 +659,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -659,7 +667,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -667,7 +675,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -675,7 +683,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -683,201 +691,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -888,7 +904,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,7 +924,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -916,7 +932,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -924,7 +940,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -932,7 +948,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -940,201 +956,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -1145,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1189,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1173,7 +1197,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1181,7 +1205,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1189,7 +1213,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1197,201 +1221,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -1402,7 +1434,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,7 +1454,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1430,7 +1462,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1438,7 +1470,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1446,7 +1478,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1454,201 +1486,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -1659,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1679,7 +1719,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1687,7 +1727,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1695,7 +1735,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1703,7 +1743,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1711,201 +1751,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>129</v>
       </c>
     </row>
@@ -1916,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1936,7 +1984,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1944,7 +1992,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1952,7 +2000,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1960,7 +2008,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1968,201 +2016,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>129</v>
       </c>
     </row>
@@ -2173,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2193,7 +2249,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2201,7 +2257,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2209,7 +2265,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2217,7 +2273,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2225,201 +2281,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>129</v>
       </c>
     </row>
@@ -2430,7 +2494,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2450,7 +2514,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2458,7 +2522,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2466,7 +2530,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2474,7 +2538,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2482,201 +2546,209 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>128</v>
       </c>
     </row>
@@ -2687,7 +2759,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2707,7 +2779,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2715,7 +2787,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2723,7 +2795,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2731,7 +2803,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2739,7 +2811,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -2747,193 +2819,201 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>128</v>
       </c>
     </row>
@@ -2944,7 +3024,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2964,7 +3044,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2972,7 +3052,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -2980,7 +3060,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -2988,7 +3068,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -2996,7 +3076,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -3004,193 +3084,201 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>128</v>
       </c>
     </row>
@@ -3201,7 +3289,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3221,207 +3309,207 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>130</v>
@@ -3429,7 +3517,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -3437,7 +3525,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -3445,9 +3533,17 @@
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -3458,7 +3554,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3478,7 +3574,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3486,7 +3582,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -3494,7 +3590,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -3502,7 +3598,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -3510,7 +3606,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -3518,193 +3614,201 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>127</v>
       </c>
     </row>
@@ -3715,7 +3819,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3735,7 +3839,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -3743,7 +3847,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -3751,7 +3855,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -3759,7 +3863,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -3767,7 +3871,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -3775,193 +3879,201 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>127</v>
       </c>
     </row>
@@ -3972,7 +4084,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3992,7 +4104,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -4000,7 +4112,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -4008,7 +4120,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -4016,7 +4128,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -4024,7 +4136,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -4032,193 +4144,201 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>126</v>
       </c>
     </row>
@@ -4229,7 +4349,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4249,7 +4369,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -4257,7 +4377,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -4265,7 +4385,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -4273,7 +4393,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -4281,7 +4401,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -4289,193 +4409,201 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>126</v>
       </c>
     </row>
@@ -4486,7 +4614,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4506,7 +4634,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -4514,7 +4642,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -4522,7 +4650,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -4530,7 +4658,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -4538,7 +4666,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -4546,7 +4674,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -4554,185 +4682,193 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>125</v>
       </c>
     </row>
@@ -4743,7 +4879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4763,215 +4899,215 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -4979,7 +5115,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -4987,9 +5123,17 @@
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -5000,7 +5144,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5020,7 +5164,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5028,207 +5172,207 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>130</v>
@@ -5236,7 +5380,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -5244,9 +5388,17 @@
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -5257,7 +5409,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5277,7 +5429,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5285,7 +5437,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -5293,207 +5445,207 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>130</v>
@@ -5501,9 +5653,17 @@
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -5514,7 +5674,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5534,7 +5694,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5542,7 +5702,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -5550,217 +5710,225 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -5771,7 +5939,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5791,7 +5959,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -5799,7 +5967,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -5807,7 +5975,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -5815,209 +5983,217 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -6028,7 +6204,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6048,7 +6224,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -6056,7 +6232,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -6064,7 +6240,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -6072,209 +6248,217 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>
@@ -6285,7 +6469,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6305,7 +6489,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -6313,7 +6497,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -6321,7 +6505,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -6329,209 +6513,217 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>130</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/seg_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/seg_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -413,7 +413,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -493,7 +493,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -509,7 +509,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -525,7 +525,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
@@ -541,7 +541,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -549,7 +549,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
@@ -854,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -983,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1007,7 +1007,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1256,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -1280,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -1304,7 +1304,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -1505,7 +1505,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1553,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1577,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1625,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1649,7 +1649,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1673,7 +1673,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -1786,7 +1786,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1810,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -1834,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1882,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -2035,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -2043,7 +2043,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -2059,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2067,7 +2067,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -2091,7 +2091,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2107,7 +2107,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -2115,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2131,7 +2131,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -2139,7 +2139,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -2155,7 +2155,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -2179,7 +2179,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -2203,7 +2203,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
@@ -2292,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2300,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -2316,7 +2316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2340,7 +2340,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -2348,7 +2348,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -2364,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -2372,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -2388,7 +2388,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -2396,7 +2396,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -2412,7 +2412,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -2420,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -2436,7 +2436,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -2460,7 +2460,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29">
@@ -2484,7 +2484,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2573,7 +2573,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -2581,7 +2581,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -2597,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -2605,7 +2605,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -2621,7 +2621,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -2629,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -2645,7 +2645,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -2653,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
@@ -2669,7 +2669,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -2677,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -2693,7 +2693,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -2701,7 +2701,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -2717,7 +2717,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -2741,7 +2741,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -2830,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -2838,7 +2838,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -2862,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -2878,7 +2878,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2886,7 +2886,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -2902,7 +2902,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -2910,7 +2910,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -2926,7 +2926,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -2934,7 +2934,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -2950,7 +2950,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -2958,7 +2958,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -2974,7 +2974,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -2982,7 +2982,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -2998,7 +2998,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -3095,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -3111,7 +3111,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -3119,7 +3119,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -3135,7 +3135,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3143,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -3159,7 +3159,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -3167,7 +3167,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -3183,7 +3183,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -3191,7 +3191,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -3207,7 +3207,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -3215,7 +3215,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -3231,7 +3231,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
@@ -3239,7 +3239,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
@@ -3255,7 +3255,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -3279,7 +3279,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -3328,7 +3328,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -3344,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -3352,7 +3352,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -3360,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -3368,7 +3368,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -3376,7 +3376,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3384,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -3392,7 +3392,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -3400,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -3408,7 +3408,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -3416,7 +3416,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -3424,7 +3424,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -3432,7 +3432,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -3440,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -3448,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -3456,7 +3456,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
@@ -3464,7 +3464,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
@@ -3472,7 +3472,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -3480,7 +3480,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24">
@@ -3488,7 +3488,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
@@ -3496,7 +3496,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26">
@@ -3504,7 +3504,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -3633,7 +3633,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -3641,7 +3641,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -3657,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -3665,7 +3665,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
@@ -3681,7 +3681,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -3689,7 +3689,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -3705,7 +3705,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -3713,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -3729,7 +3729,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -3753,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -3777,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28">
@@ -3801,7 +3801,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
@@ -3890,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -3906,7 +3906,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -3914,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
@@ -3930,7 +3930,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -3938,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -3954,7 +3954,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -3962,7 +3962,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -3978,7 +3978,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -3986,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -4010,7 +4010,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -4034,7 +4034,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -4058,7 +4058,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -4163,7 +4163,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -4171,7 +4171,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
@@ -4187,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -4211,7 +4211,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -4235,7 +4235,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -4259,7 +4259,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -4283,7 +4283,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -4307,7 +4307,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -4331,7 +4331,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
@@ -4709,7 +4709,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -4733,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -4757,7 +4757,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -4781,7 +4781,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -4805,7 +4805,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -4829,7 +4829,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -4853,7 +4853,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30">
@@ -4910,7 +4910,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -4926,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -4934,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -4942,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -4950,7 +4950,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -4958,7 +4958,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -4966,7 +4966,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -4974,7 +4974,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -4982,7 +4982,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -4990,7 +4990,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -4998,7 +4998,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -5006,7 +5006,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -5014,7 +5014,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -5022,7 +5022,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -5030,7 +5030,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
@@ -5038,7 +5038,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -5046,7 +5046,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -5054,7 +5054,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -5062,7 +5062,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -5070,7 +5070,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -5078,7 +5078,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -5086,7 +5086,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -5094,7 +5094,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27">
@@ -5183,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -5207,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -5215,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -5223,7 +5223,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -5231,7 +5231,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -5239,7 +5239,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -5247,7 +5247,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -5255,7 +5255,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -5279,7 +5279,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -5303,7 +5303,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -5327,7 +5327,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -5351,7 +5351,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -5375,7 +5375,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -5472,7 +5472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -5496,7 +5496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -5520,7 +5520,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -5544,7 +5544,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17">
@@ -5568,7 +5568,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -5592,7 +5592,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -5616,7 +5616,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -5640,7 +5640,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -5721,7 +5721,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
@@ -5745,7 +5745,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -5769,7 +5769,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -5793,7 +5793,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -6138,7 +6138,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -6162,7 +6162,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -6419,7 +6419,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
@@ -6443,7 +6443,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
@@ -6540,7 +6540,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
@@ -6564,7 +6564,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -6636,7 +6636,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -6660,7 +6660,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24">
@@ -6684,7 +6684,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -6708,7 +6708,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
